--- a/output/results_2023-08-08/scenario_2018_ind_lin_time/ind_demand_forecast_per_country.xlsx
+++ b/output/results_2023-08-08/scenario_2018_ind_lin_time/ind_demand_forecast_per_country.xlsx
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.521665665794</v>
+        <v>2.521665665795</v>
       </c>
       <c r="C4" t="n">
         <v>8.671099718065999</v>
@@ -633,7 +633,7 @@
         <v>10.472152775167</v>
       </c>
       <c r="H6" t="n">
-        <v>41.337445165132</v>
+        <v>41.337445165133</v>
       </c>
     </row>
     <row r="7">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.713261259805</v>
+        <v>17.713261259804</v>
       </c>
       <c r="C9" t="n">
-        <v>11.946605413319</v>
+        <v>11.94660541332</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>1.208359549574</v>
       </c>
       <c r="C14" t="n">
-        <v>0.532064457606</v>
+        <v>0.5320644576070001</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>1.672386591402</v>
       </c>
       <c r="H18" t="n">
-        <v>6.60152601869</v>
+        <v>6.601526018691</v>
       </c>
     </row>
     <row r="19">
@@ -982,7 +982,7 @@
         <v>1.357141700634</v>
       </c>
       <c r="C19" t="n">
-        <v>0.058665076188</v>
+        <v>0.058665076189</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>5.73256422373</v>
       </c>
       <c r="C20" t="n">
-        <v>11.247618989405</v>
+        <v>11.247618989406</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>5.140687638184</v>
       </c>
       <c r="C23" t="n">
-        <v>2.89269688424</v>
+        <v>2.892696884241</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.477309979301</v>
+        <v>-1.4773099793</v>
       </c>
       <c r="C29" t="n">
         <v>0.158194407122</v>
@@ -8722,7 +8722,7 @@
         <v>23.323400464422</v>
       </c>
       <c r="C6" t="n">
-        <v>45.094995896251</v>
+        <v>45.094995896252</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8734,7 +8734,7 @@
         <v>9.661038735597</v>
       </c>
       <c r="G6" t="n">
-        <v>29.311747332563</v>
+        <v>29.311747332564</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -8815,10 +8815,10 @@
         <v>1.454631654785</v>
       </c>
       <c r="F9" t="n">
-        <v>2.295454281626</v>
+        <v>2.295454281625</v>
       </c>
       <c r="G9" t="n">
-        <v>6.964445310477</v>
+        <v>6.964445310476</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>3.602309271278</v>
       </c>
       <c r="G12" t="n">
-        <v>10.929464425434</v>
+        <v>10.929464425435</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>2.901387319351</v>
       </c>
       <c r="C18" t="n">
-        <v>6.639133366641</v>
+        <v>6.639133366642</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>2.123677147113</v>
       </c>
       <c r="G19" t="n">
-        <v>6.443270714024</v>
+        <v>6.443270714025</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -9195,10 +9195,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.406767668477</v>
+        <v>24.406767668478</v>
       </c>
       <c r="C23" t="n">
-        <v>69.24254214584001</v>
+        <v>69.24254214584199</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>14.834348435494</v>
       </c>
       <c r="G23" t="n">
-        <v>45.007652394796</v>
+        <v>45.007652394797</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -9226,19 +9226,19 @@
         <v>23.452608652792</v>
       </c>
       <c r="C24" t="n">
-        <v>54.864774906331</v>
+        <v>54.864774906332</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>7.448579547946</v>
+        <v>7.448579547947</v>
       </c>
       <c r="F24" t="n">
-        <v>11.754091669269</v>
+        <v>11.75409166927</v>
       </c>
       <c r="G24" t="n">
-        <v>35.662103689115</v>
+        <v>35.662103689116</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.35427377331</v>
+        <v>0.354273773311</v>
       </c>
       <c r="C31" t="n">
         <v>0.642361758692</v>
@@ -9735,7 +9735,7 @@
         <v>3.460657542851</v>
       </c>
       <c r="C6" t="n">
-        <v>24.49781260597</v>
+        <v>24.497812605969</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0.568495984689</v>
       </c>
       <c r="H8" t="n">
-        <v>10.346626921348</v>
+        <v>10.346626921349</v>
       </c>
     </row>
     <row r="9">
@@ -12318,7 +12318,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23.046119711326</v>
+        <v>23.046119711327</v>
       </c>
       <c r="C26" t="n">
         <v>1.443693706054</v>
@@ -12674,7 +12674,7 @@
         <v>1.883480868251</v>
       </c>
       <c r="G2" t="n">
-        <v>6.170611856456</v>
+        <v>6.170611856457</v>
       </c>
       <c r="H2" t="n">
         <v>15.540567739648</v>
@@ -12690,7 +12690,7 @@
         <v>3.587367952888</v>
       </c>
       <c r="C3" t="n">
-        <v>6.300329327281</v>
+        <v>6.300329327282</v>
       </c>
       <c r="D3" t="n">
         <v>1.916625881393</v>
@@ -12733,7 +12733,7 @@
         <v>6.028281590403</v>
       </c>
       <c r="H4" t="n">
-        <v>12.026526098861</v>
+        <v>12.026526098862</v>
       </c>
     </row>
     <row r="5">
@@ -12774,7 +12774,7 @@
         <v>147.079561921193</v>
       </c>
       <c r="C6" t="n">
-        <v>142.316530588875</v>
+        <v>142.316530588877</v>
       </c>
       <c r="D6" t="n">
         <v>261.482648963137</v>
@@ -12783,13 +12783,13 @@
         <v>9.867102692621</v>
       </c>
       <c r="F6" t="n">
-        <v>12.380316450094</v>
+        <v>12.380316450095</v>
       </c>
       <c r="G6" t="n">
-        <v>41.284645661065</v>
+        <v>41.284645661066</v>
       </c>
       <c r="H6" t="n">
-        <v>78.784465785094</v>
+        <v>78.78446578509499</v>
       </c>
     </row>
     <row r="7">
@@ -12858,7 +12858,7 @@
         <v>49.305453647516</v>
       </c>
       <c r="C9" t="n">
-        <v>63.772633648584</v>
+        <v>63.772633648585</v>
       </c>
       <c r="D9" t="n">
         <v>51.155460067742</v>
@@ -12942,7 +12942,7 @@
         <v>54.995928838227</v>
       </c>
       <c r="C12" t="n">
-        <v>76.866180030408</v>
+        <v>76.866180030409</v>
       </c>
       <c r="D12" t="n">
         <v>61.473070552521</v>
@@ -13079,10 +13079,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.224102343078</v>
+        <v>11.224102343079</v>
       </c>
       <c r="C17" t="n">
-        <v>27.504200452498</v>
+        <v>27.504200452499</v>
       </c>
       <c r="D17" t="n">
         <v>9.119645263137</v>
@@ -13107,10 +13107,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.014899942076</v>
+        <v>25.014899942077</v>
       </c>
       <c r="C18" t="n">
-        <v>34.359537349489</v>
+        <v>34.35953734949</v>
       </c>
       <c r="D18" t="n">
         <v>41.474630778511</v>
@@ -13119,13 +13119,13 @@
         <v>2.22492817346</v>
       </c>
       <c r="F18" t="n">
-        <v>2.067401312888</v>
+        <v>2.067401312889</v>
       </c>
       <c r="G18" t="n">
         <v>6.702000766117</v>
       </c>
       <c r="H18" t="n">
-        <v>23.365207097023</v>
+        <v>23.365207097024</v>
       </c>
     </row>
     <row r="19">
@@ -13250,7 +13250,7 @@
         <v>32.091794037805</v>
       </c>
       <c r="C23" t="n">
-        <v>75.087426312887</v>
+        <v>75.08742631288899</v>
       </c>
       <c r="D23" t="n">
         <v>5.821944522571</v>
@@ -13262,7 +13262,7 @@
         <v>15.025141649732</v>
       </c>
       <c r="G23" t="n">
-        <v>45.644691619635</v>
+        <v>45.644691619636</v>
       </c>
       <c r="H23" t="n">
         <v>4.69628402392</v>
@@ -13275,10 +13275,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33.521998891986</v>
+        <v>33.521998891987</v>
       </c>
       <c r="C24" t="n">
-        <v>64.779632958417</v>
+        <v>64.77963295841801</v>
       </c>
       <c r="D24" t="n">
         <v>8.298155972867001</v>
@@ -14688,7 +14688,7 @@
         <v>61.903870885585</v>
       </c>
       <c r="C2" t="n">
-        <v>42.605781615472</v>
+        <v>42.605781615473</v>
       </c>
       <c r="D2" t="n">
         <v>91.25258076503501</v>
@@ -14797,10 +14797,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.50503499857</v>
+        <v>297.505034998571</v>
       </c>
       <c r="C6" t="n">
-        <v>255.869631186432</v>
+        <v>255.869631186433</v>
       </c>
       <c r="D6" t="n">
         <v>261.482648963137</v>
@@ -14812,7 +14812,7 @@
         <v>37.512170076787</v>
       </c>
       <c r="G6" t="n">
-        <v>54.911017732772</v>
+        <v>54.911017732773</v>
       </c>
       <c r="H6" t="n">
         <v>119.663582000215</v>
@@ -14884,7 +14884,7 @@
         <v>99.749990168997</v>
       </c>
       <c r="C9" t="n">
-        <v>136.178480435893</v>
+        <v>136.178480435894</v>
       </c>
       <c r="D9" t="n">
         <v>51.155460067742</v>
@@ -14899,7 +14899,7 @@
         <v>19.660890664987</v>
       </c>
       <c r="H9" t="n">
-        <v>72.071211470343</v>
+        <v>72.071211470344</v>
       </c>
     </row>
     <row r="10">
@@ -14912,7 +14912,7 @@
         <v>146.874493176789</v>
       </c>
       <c r="C10" t="n">
-        <v>146.180372944656</v>
+        <v>146.180372944657</v>
       </c>
       <c r="D10" t="n">
         <v>110.843643038932</v>
@@ -14968,7 +14968,7 @@
         <v>136.032029253776</v>
       </c>
       <c r="C12" t="n">
-        <v>121.373769844268</v>
+        <v>121.373769844269</v>
       </c>
       <c r="D12" t="n">
         <v>61.473070552521</v>
@@ -14980,7 +14980,7 @@
         <v>14.658917421462</v>
       </c>
       <c r="G12" t="n">
-        <v>21.852892632922</v>
+        <v>21.852892632923</v>
       </c>
       <c r="H12" t="n">
         <v>67.049493554854</v>
@@ -15024,7 +15024,7 @@
         <v>2.03872843949</v>
       </c>
       <c r="C14" t="n">
-        <v>2.761270169336</v>
+        <v>2.761270169337</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -15136,7 +15136,7 @@
         <v>68.820966730164</v>
       </c>
       <c r="C18" t="n">
-        <v>117.476365007782</v>
+        <v>117.476365007783</v>
       </c>
       <c r="D18" t="n">
         <v>41.474630778511</v>
@@ -15145,10 +15145,10 @@
         <v>27.050056281869</v>
       </c>
       <c r="F18" t="n">
-        <v>20.463023586792</v>
+        <v>20.463023586793</v>
       </c>
       <c r="G18" t="n">
-        <v>16.676020085112</v>
+        <v>16.676020085113</v>
       </c>
       <c r="H18" t="n">
         <v>53.287265054009</v>
@@ -15207,7 +15207,7 @@
         <v>7.622752298177</v>
       </c>
       <c r="H20" t="n">
-        <v>28.508663877298</v>
+        <v>28.508663877299</v>
       </c>
     </row>
     <row r="21">
@@ -15273,10 +15273,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.805732081996</v>
+        <v>49.805732081997</v>
       </c>
       <c r="C23" t="n">
-        <v>94.462014155334</v>
+        <v>94.462014155335</v>
       </c>
       <c r="D23" t="n">
         <v>5.821944522571</v>
@@ -15288,7 +15288,7 @@
         <v>19.313173444298</v>
       </c>
       <c r="G23" t="n">
-        <v>47.969642160729</v>
+        <v>47.96964216073</v>
       </c>
       <c r="H23" t="n">
         <v>11.671135647201</v>
@@ -15301,7 +15301,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57.246331108219</v>
+        <v>57.24633110822</v>
       </c>
       <c r="C24" t="n">
         <v>70.27370732516199</v>
@@ -15316,7 +15316,7 @@
         <v>13.276312606176</v>
       </c>
       <c r="G24" t="n">
-        <v>37.616461862071</v>
+        <v>37.616461862072</v>
       </c>
       <c r="H24" t="n">
         <v>9.806571022435</v>
@@ -15357,7 +15357,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51.743054517408</v>
+        <v>51.743054517409</v>
       </c>
       <c r="C26" t="n">
         <v>22.262406787962</v>
@@ -16910,7 +16910,7 @@
         <v>0.729525650712</v>
       </c>
       <c r="C9" t="n">
-        <v>1.382259127664</v>
+        <v>1.382259127665</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
